--- a/scoresheets_clean/PANAS.xlsx
+++ b/scoresheets_clean/PANAS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Desktop/BAM-data-cleaning/scoresheets_clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumb/Desktop/BAM-data-cleaning/scoresheets_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FC4ABC16-229D-024D-81C0-2106FBD7384B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{44ED45DF-91AC-5348-9B9B-15A0D661E8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="4760" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28120" yWindow="11360" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAS_scoreshet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="471" uniqueCount="82">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="510" uniqueCount="87">
   <si>
     <t>raw_vars</t>
   </si>
@@ -150,9 +150,6 @@
     <t>afraid</t>
   </si>
   <si>
-    <t>panas_interested, panas_distressed, panas_excited, panas_upset, panas_strong, panas_guilty, panas_scared, hostile, enthusiastic, proud, irritable, alert, ashamed, inspired, nervous, determined, attentive, jittery, active, afraid</t>
-  </si>
-  <si>
     <t>select</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>panas_negative_sum</t>
   </si>
   <si>
-    <t>panas_1_interested, panas_3_excited, panas_5_strong, panas_8_enthusiastic, panas_9_proud, panas_11_alert, panas_13_inspired, panas_15_determined, panas_16_attentive,  panas_18_active, panas_2_distressed, panas_4_upset, panas_5_guilty, panas_6_scared, panas_7_hostile, panas_10_irritable, panas_12_ashamed, panas_14_nervous, panas_17_jittery, panas_19_afraid</t>
-  </si>
-  <si>
     <t>panas_positive_25</t>
   </si>
   <si>
@@ -271,6 +265,27 @@
   </si>
   <si>
     <t>as.numeric (panas_negative_sum_weighted_sum)</t>
+  </si>
+  <si>
+    <t>record_id</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>redcap_event_name</t>
+  </si>
+  <si>
+    <t>record_id, redcap_event_name, panas_interested, panas_distressed, panas_excited, panas_upset, panas_strong, panas_guilty, panas_scared, hostile, enthusiastic, proud, irritable, alert, ashamed, inspired, nervous, determined, attentive, jittery, active, afraid</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>timepoint</t>
+  </si>
+  <si>
+    <t>id, timepoint, panas_1_interested, panas_3_excited, panas_5_strong, panas_8_enthusiastic, panas_9_proud, panas_11_alert, panas_13_inspired, panas_15_determined, panas_16_attentive,  panas_18_active, panas_2_distressed, panas_4_upset, panas_5_guilty, panas_6_scared, panas_7_hostile, panas_10_irritable, panas_12_ashamed, panas_14_nervous, panas_17_jittery, panas_19_afraid</t>
   </si>
 </sst>
 </file>
@@ -1123,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1166,85 +1181,82 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1273,13 +1285,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1308,13 +1320,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1343,13 +1355,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1378,13 +1390,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1413,13 +1425,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1448,13 +1460,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1483,13 +1495,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1518,13 +1530,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1553,13 +1565,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1588,13 +1600,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1623,13 +1635,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1658,13 +1670,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1693,13 +1705,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1728,13 +1740,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1763,13 +1775,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1798,13 +1810,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1833,13 +1845,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1868,22 +1880,22 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -1903,19 +1915,19 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -1938,121 +1950,121 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1">
         <v>2</v>
       </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25">
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2078,16 +2090,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2113,16 +2125,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -2148,16 +2160,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2183,16 +2195,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2218,16 +2230,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2253,16 +2265,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -2288,16 +2300,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -2323,16 +2335,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -2358,16 +2370,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -2393,16 +2405,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2428,16 +2440,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2463,16 +2475,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -2498,16 +2510,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -2533,16 +2545,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2568,16 +2580,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2603,22 +2615,22 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -2638,22 +2650,22 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -2673,22 +2685,22 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -2708,34 +2720,34 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>79</v>
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
       </c>
       <c r="K46" t="s">
         <v>12</v>
@@ -2743,36 +2755,176 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
         <v>68</v>
       </c>
-      <c r="B47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47">
+      <c r="I50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51">
         <v>5</v>
       </c>
-      <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K51" t="s">
         <v>12</v>
       </c>
     </row>
